--- a/documents/Rozvrh-hodin-velká-tělocvična-od-září-2023.xlsx
+++ b/documents/Rozvrh-hodin-velká-tělocvična-od-září-2023.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zuzka\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69D6A316-953A-4D13-947E-B92C8DA2E9E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{37094658-4DC3-4211-B11A-485B79969C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{83F3DE6F-7855-498E-994B-DC168B9023FE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AA13720D-26AA-412C-8553-9096A3273328}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">List1!$A$2:$J$10</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">List1!$A$2:$K$10</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,9 +28,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
-  <si>
-    <t>Rozvrh lekcí v Café Pilates - Tělocvična  OD ZÁŘÍ 2023</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
+  <si>
+    <t xml:space="preserve">Rozvrh lekcí v Café Pilates - Tělocvična </t>
   </si>
   <si>
     <t>8:00 - 9:00</t>
@@ -42,6 +42,9 @@
     <t>10:00 - 11:00</t>
   </si>
   <si>
+    <t>13:00 - 14:00</t>
+  </si>
+  <si>
     <t>15:00 - 16:00</t>
   </si>
   <si>
@@ -69,7 +72,7 @@
     <t>9:30 - 10:30                  bodystyling s Terkou</t>
   </si>
   <si>
-    <t>BOSU  míče s Kristýnou</t>
+    <t>Polední flow jóga s Verčou V.</t>
   </si>
   <si>
     <t>SM systém  spirální stabilizace páteře                      s Veronikou</t>
@@ -84,22 +87,22 @@
     <t>Út</t>
   </si>
   <si>
-    <t>8:15- 9:15                  Pilates level II            s Veronikou</t>
-  </si>
-  <si>
-    <t>9:15 - 10:15         Pilates level I pánevní dno a pomůcky   s Kristýnou</t>
-  </si>
-  <si>
-    <t>10:30 - 11:30         Bodystyling  &amp; baby     s Karolínou</t>
-  </si>
-  <si>
-    <t>15:45 - 16:45      Pilates level I začátečníci                          s Kristýnou</t>
-  </si>
-  <si>
-    <t>FiTT BALL a Pilates   s Helenou</t>
-  </si>
-  <si>
-    <t>Pilates pro těhotné   s Kristýnou</t>
+    <t>8:15 Pilates level II            s Veronikou</t>
+  </si>
+  <si>
+    <t>Pilates level I pánevní dno a pomůcky   s Kristýnou</t>
+  </si>
+  <si>
+    <t>Bodystyling  &amp; baby     s Karolínou</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pilates pro těhotné                  s Kristýnou</t>
+  </si>
+  <si>
+    <t>BOSU míče s Kristýnou</t>
+  </si>
+  <si>
+    <t>Pilates level I - začátečníci                         s Marikou</t>
   </si>
   <si>
     <t>Bodystyling s Terkou</t>
@@ -117,37 +120,28 @@
     <t>Pilates level II          s Terkou</t>
   </si>
   <si>
-    <t xml:space="preserve"> Pilates level I - zaměřeno na záda                          s Veronikou</t>
+    <t xml:space="preserve"> Pilates level I - zaměřeno na záda                          s Verčou</t>
   </si>
   <si>
     <t xml:space="preserve"> Bodystyling                          s Helenou</t>
   </si>
   <si>
-    <t>19:00 - 20:00         Pilates level II - pokročilí                          s Helenou</t>
+    <t>Večerní relaxační jóga s Verčou V.</t>
   </si>
   <si>
     <t>Čt</t>
   </si>
   <si>
-    <t>8:0 - 9:00   Ranní flow jóga     s Kristinou</t>
-  </si>
-  <si>
-    <t>BOSU míče s Kristýnou</t>
-  </si>
-  <si>
-    <t>Bodystyling  &amp; baby     s Karolínou</t>
+    <t>8:00 - 9:00   Ranní flow jóga     s Verčou V.</t>
   </si>
   <si>
     <t>15:15 - 16:15 Soukromá hodina</t>
   </si>
   <si>
-    <t>16:30 - 17:30 Pilates level II                      s Veronikou</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17:30 - 18:30 Kruháč (no jumping)       se Zuzkou </t>
-  </si>
-  <si>
-    <t>18:30 - 19:30 POWER JÓGA        s Danou Dobeš Rychtovou</t>
+    <t xml:space="preserve"> POWER JÓGA        s Danou Dobeš Rychtovou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18:00 - 19:00 Kruháč (no jumping)       se Zuzkou </t>
   </si>
   <si>
     <r>
@@ -160,7 +154,7 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
-      <t>19:45 - 20:45</t>
+      <t>19:00 - 20:00</t>
     </r>
     <r>
       <rPr>
@@ -171,7 +165,7 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">          </t>
+      <t xml:space="preserve">        </t>
     </r>
     <r>
       <rPr>
@@ -213,25 +207,31 @@
     <t>Pá</t>
   </si>
   <si>
-    <t>12:00 - 13:00     Soukromá lekce   Zuzka</t>
-  </si>
-  <si>
-    <t>Pilates level II s Helenou</t>
-  </si>
-  <si>
-    <t>Kruháč   (No Jumping)                              s Helenou</t>
-  </si>
-  <si>
-    <t>Večerní dynamický jóga         s Kristinou</t>
+    <t>8:30 - 9:30  Pilates level I s Veronikou</t>
+  </si>
+  <si>
+    <t>11:00 - 12:00         Soukromá lekce Zuzka</t>
+  </si>
+  <si>
+    <t>12:30 - 13:00     Soukromá lekce   Zuzka</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Stretch &amp;Relax        s Karolínou</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bodystyling s Karolínou</t>
+  </si>
+  <si>
+    <t>Pilates level I                        s Helenou</t>
   </si>
   <si>
     <t>So</t>
   </si>
   <si>
-    <t>8:30 - 9:30   Ranní flow jóga     s Kristinou</t>
-  </si>
-  <si>
-    <t>9:30 - 10:30  Bodystyling              s Helenou</t>
+    <t>9:30 - 10:30  Bodystyling - střed těla              s Helenou</t>
+  </si>
+  <si>
+    <t>10:30 - 11:30      Pilates level I      s Marikou</t>
   </si>
   <si>
     <t>Meditace s Ellen</t>
@@ -249,7 +249,7 @@
     <t>10:45 - 11:45          BOSU míče s Karolínou</t>
   </si>
   <si>
-    <t>17:45 - 18:45           Pilates level II - pokročilí                    s Helenou</t>
+    <t>17:45 - 18:45         Bodystyling                    s Helenou</t>
   </si>
   <si>
     <t>Pilates level II - pokročilí s Terkou nebo Zuzkou</t>
@@ -303,7 +303,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -316,14 +316,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -437,6 +431,17 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -501,6 +506,32 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -568,7 +599,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -591,46 +622,52 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -944,29 +981,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2095EA4-5BFB-4531-B3BE-CAD0074BFB62}">
-  <dimension ref="A1:K10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4066F3F3-A320-43B7-95A0-0F99460BAC21}">
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.08984375" customWidth="1"/>
-    <col min="2" max="2" width="15.36328125" customWidth="1"/>
-    <col min="3" max="3" width="13.90625" customWidth="1"/>
-    <col min="4" max="4" width="14.36328125" customWidth="1"/>
-    <col min="5" max="5" width="12.26953125" customWidth="1"/>
-    <col min="6" max="6" width="13.6328125" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" customWidth="1"/>
-    <col min="8" max="8" width="15.6328125" customWidth="1"/>
-    <col min="9" max="9" width="13.26953125" customWidth="1"/>
-    <col min="10" max="10" width="13.36328125" customWidth="1"/>
+    <col min="2" max="3" width="12.453125" customWidth="1"/>
+    <col min="4" max="4" width="12.90625" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="12.26953125" customWidth="1"/>
+    <col min="7" max="7" width="13.6328125" customWidth="1"/>
+    <col min="8" max="8" width="14.36328125" customWidth="1"/>
+    <col min="9" max="9" width="12.81640625" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="11" max="11" width="11.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="3" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="3" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -978,8 +1015,9 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
         <v>1</v>
@@ -1002,193 +1040,206 @@
       <c r="H3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="K3" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="10"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="9" t="s">
+      <c r="E4" s="9" t="s">
         <v>14</v>
       </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
       <c r="H4" s="9" t="s">
         <v>15</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="12"/>
+      <c r="J4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="13"/>
     </row>
-    <row r="5" spans="1:11" ht="65.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="14" t="s">
+    <row r="5" spans="1:12" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="B5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="C5" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15" t="s">
+      <c r="D5" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="16" t="s">
         <v>24</v>
       </c>
       <c r="J5" s="16" t="s">
         <v>25</v>
       </c>
+      <c r="K5" s="18" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="14" t="s">
+    <row r="6" spans="1:12" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="B6" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="15" t="s">
+      <c r="C6" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15" t="s">
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="H6" s="16"/>
+      <c r="I6" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="16"/>
+      <c r="J6" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="22"/>
     </row>
-    <row r="7" spans="1:11" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="14" t="s">
+    <row r="7" spans="1:12" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="B7" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="C7" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="G7" s="16"/>
+      <c r="H7" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="I7" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="J7" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="K7" s="22"/>
+    </row>
+    <row r="8" spans="1:12" ht="39.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="B8" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="22"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="16"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="24"/>
     </row>
-    <row r="8" spans="1:11" ht="39.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="J8" s="22"/>
-      <c r="K8" s="24"/>
+    <row r="9" spans="1:12" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="25"/>
+      <c r="K9" s="22"/>
     </row>
-    <row r="9" spans="1:11" ht="39.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="I9" s="23"/>
-      <c r="J9" s="22"/>
-    </row>
-    <row r="10" spans="1:11" ht="53" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="25" t="s">
+    <row r="10" spans="1:12" ht="53" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27" t="s">
+      <c r="E10" s="29"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="I10" s="27" t="s">
+      <c r="J10" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="J10" s="29"/>
+      <c r="K10" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:I2"/>
+  <mergeCells count="2">
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
